--- a/IPCC_prior_calculations_v7_revision_github.xlsx
+++ b/IPCC_prior_calculations_v7_revision_github.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/av/Sydney Uni Dropbox/Andrey Vasnev/Research/2023/IPCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE30CB-8A2B-4641-A2C5-FF27EA829CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE8E0F-89F8-4C46-9E97-4CD5CE19CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="460" windowWidth="29300" windowHeight="17420" xr2:uid="{8DED0DC3-E92A-7C48-BFE5-D1EF9375190C}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
   <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <t>p_i</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>\rho</t>
   </si>
   <si>
-    <t>Table 3</t>
-  </si>
-  <si>
     <t>(a)</t>
   </si>
   <si>
@@ -245,18 +239,12 @@
     <t>quantiles check</t>
   </si>
   <si>
-    <t>Matlab calculations with equicorrelation assumption corresponding to Table 5 in the paper</t>
-  </si>
-  <si>
     <t>values are copied with full Matlab precision</t>
   </si>
   <si>
     <t>excluding first study</t>
   </si>
   <si>
-    <t>Table 5</t>
-  </si>
-  <si>
     <t>Table 6</t>
   </si>
   <si>
@@ -287,7 +275,19 @@
     <t>available at http://www.janmagnus.nl/papers/prior-ecs.pdf</t>
   </si>
   <si>
-    <t>Table 5 is computed in Matlab, the rest of numerical calculations are in this spreadsheet</t>
+    <t>Table 6 is computed in Matlab, the rest of numerical calculations are in this spreadsheet</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 7</t>
+  </si>
+  <si>
+    <t>Matlab calculations with equicorrelation assumption corresponding to Table 6 in the paper</t>
+  </si>
+  <si>
+    <t>Table 4</t>
   </si>
 </sst>
 </file>
@@ -654,6 +654,10 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,10 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1155,68 +1155,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19">
-      <c r="A1" s="85" t="s">
-        <v>81</v>
+      <c r="A1" s="79" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19">
-      <c r="A2" s="85" t="s">
-        <v>82</v>
+      <c r="A2" s="79" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="48" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="81"/>
+      <c r="D6" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="85"/>
       <c r="H6" s="1"/>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="34"/>
       <c r="B7" s="7"/>
       <c r="C7" s="50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>4</v>
-      </c>
       <c r="F7" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1"/>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="53">
         <v>0.95</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="53">
         <v>0.9</v>
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="53">
         <v>0.9</v>
@@ -1320,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="53">
         <v>0.9</v>
@@ -1352,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="53">
         <v>0.9</v>
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="53">
         <v>0.95</v>
@@ -1416,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="53">
         <v>0.9</v>
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="53">
         <v>0.9</v>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="53">
         <v>0.9</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="53">
         <v>0.9</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="53">
         <v>0.9</v>
@@ -1576,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="53">
         <v>0.95</v>
@@ -1608,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="53">
         <v>0.67</v>
@@ -1640,7 +1640,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="53">
         <v>0.9</v>
@@ -1672,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="60">
         <v>0.95</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="4">
         <f>AVERAGE(F8:F22)</f>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="H24" s="4"/>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M24" s="3">
         <f>MIN(M8:M22)</f>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4">
         <f>MEDIAN(F8:F22)</f>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H25" s="4"/>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M25" s="3">
         <f>MAX(M8:M22)</f>
@@ -1751,18 +1751,18 @@
     </row>
     <row r="26" spans="1:14">
       <c r="E26" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="L26" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="4">
         <f>AVERAGE(F9:F22)</f>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H27" s="4"/>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M27" s="3">
         <f>MIN(M9:M22)</f>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="4">
         <f>MEDIAN(F9:F22)</f>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H28" s="4"/>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M28" s="3">
         <f>MAX(M9:M22)</f>
@@ -1815,24 +1815,24 @@
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17" thickBot="1">
       <c r="B31" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="71">
@@ -1856,20 +1856,20 @@
     </row>
     <row r="33" spans="1:19">
       <c r="B33" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="17" thickBot="1">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="C35" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -1877,7 +1877,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
       <c r="J35" s="22" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
@@ -1890,54 +1890,54 @@
       <c r="G36" s="7"/>
       <c r="H36" s="35"/>
       <c r="J36" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L36" s="26"/>
       <c r="M36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
+        <v>22</v>
+      </c>
+      <c r="O36" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="C37" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="O37" s="21">
         <v>0.05</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="34">
         <v>0.9</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="47" spans="1:19" ht="17" thickBot="1">
       <c r="C47" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="44">
         <v>1.22753899947426</v>
@@ -2319,37 +2319,37 @@
     </row>
     <row r="55" spans="1:17" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="A55" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="48" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
-      <c r="F56" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="80"/>
-      <c r="H56" s="81"/>
+      <c r="F56" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="84"/>
+      <c r="H56" s="85"/>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="34"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F57" s="53">
         <v>0.05</v>
@@ -2361,10 +2361,10 @@
         <v>0.95</v>
       </c>
       <c r="M57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O57" s="21">
         <v>0.05</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" s="7">
         <v>1.22</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C59" s="7">
         <v>1.03</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" s="7">
         <v>1.2</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="61" spans="1:17" ht="17" thickBot="1">
       <c r="A61" s="67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" s="68">
         <v>1.05</v>
@@ -2573,7 +2573,7 @@
     <row r="63" spans="1:17">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="4">
         <f>AVERAGE(C58:C61)</f>
@@ -2584,7 +2584,7 @@
         <v>0.42999999999999994</v>
       </c>
       <c r="L63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M63" s="3">
         <f>MIN(M58:M61)</f>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="4">
         <f>MEDIAN(C58:C61)</f>
@@ -2608,7 +2608,7 @@
         <v>0.375</v>
       </c>
       <c r="L64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M64" s="3">
         <f>MAX(M58:M61)</f>
@@ -2624,18 +2624,18 @@
       <c r="B66" s="48"/>
       <c r="C66" s="49"/>
       <c r="D66" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17" thickBot="1">
       <c r="B67" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" s="68"/>
       <c r="D67" s="71">
@@ -2663,17 +2663,17 @@
     </row>
     <row r="69" spans="1:19">
       <c r="C69" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="17" thickBot="1">
       <c r="C70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="C71" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
@@ -2681,7 +2681,7 @@
       <c r="G71" s="49"/>
       <c r="H71" s="70"/>
       <c r="J71" s="22" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K71" s="23"/>
       <c r="L71" s="24"/>
@@ -2694,54 +2694,54 @@
       <c r="G72" s="7"/>
       <c r="H72" s="35"/>
       <c r="J72" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L72" s="26"/>
       <c r="M72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N72" t="s">
-        <v>23</v>
-      </c>
-      <c r="O72" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="76"/>
+        <v>22</v>
+      </c>
+      <c r="O72" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
       <c r="R72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="C73" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73" t="s">
-        <v>42</v>
-      </c>
-      <c r="L73" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="O73" s="21">
         <v>0.05</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="34">
         <v>0.9</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="83" spans="1:19" ht="17" thickBot="1">
       <c r="C83" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D83" s="44">
         <v>1.0007433735106901</v>
@@ -3126,23 +3126,23 @@
     </row>
     <row r="91" spans="1:19" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:19">
       <c r="D93" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:19">
       <c r="B94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D94" s="3">
         <f>D31</f>
@@ -3159,36 +3159,36 @@
     </row>
     <row r="95" spans="1:19">
       <c r="C95" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:19">
       <c r="B96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C96">
         <f>C80</f>
         <v>0.9</v>
       </c>
       <c r="D96" s="3">
-        <f>J80</f>
+        <f t="shared" ref="D96:F98" si="13">J80</f>
         <v>1.6614403676994338</v>
       </c>
       <c r="E96" s="3">
-        <f>K80</f>
+        <f t="shared" si="13"/>
         <v>0.44671045893411682</v>
       </c>
       <c r="F96" s="3">
-        <f>L80</f>
+        <f t="shared" si="13"/>
         <v>0.66836401678585067</v>
       </c>
     </row>
@@ -3198,15 +3198,15 @@
         <v>0.95</v>
       </c>
       <c r="D97" s="3">
-        <f>J81</f>
+        <f t="shared" si="13"/>
         <v>1.2372496970106077</v>
       </c>
       <c r="E97" s="3">
-        <f>K81</f>
+        <f t="shared" si="13"/>
         <v>0.12643923360321621</v>
       </c>
       <c r="F97" s="3">
-        <f>L81</f>
+        <f t="shared" si="13"/>
         <v>0.35558294897705123</v>
       </c>
     </row>
@@ -3216,58 +3216,58 @@
         <v>0.99</v>
       </c>
       <c r="D98" s="3">
-        <f>J82</f>
+        <f t="shared" si="13"/>
         <v>1.1644431585961768</v>
       </c>
       <c r="E98" s="3">
-        <f>K82</f>
+        <f t="shared" si="13"/>
         <v>8.032576409106261E-2</v>
       </c>
       <c r="F98" s="3">
-        <f>L82</f>
+        <f t="shared" si="13"/>
         <v>0.28341800241174275</v>
       </c>
     </row>
     <row r="100" spans="2:14">
       <c r="B100" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="2:14">
       <c r="B101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="2:14">
       <c r="B102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="2:14">
       <c r="B103" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:14">
       <c r="B104" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="2:14">
       <c r="C107" s="14"/>
-      <c r="D107" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="78"/>
-      <c r="F107" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G107" s="78"/>
-      <c r="H107" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="I107" s="79"/>
-      <c r="J107" s="79"/>
+      <c r="D107" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="82"/>
+      <c r="F107" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G107" s="82"/>
+      <c r="H107" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I107" s="83"/>
+      <c r="J107" s="83"/>
       <c r="K107" s="11"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -3275,35 +3275,35 @@
     </row>
     <row r="108" spans="2:14">
       <c r="C108" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N108" s="7"/>
     </row>
@@ -3331,7 +3331,7 @@
       <c r="H109" s="12"/>
       <c r="J109" s="4"/>
       <c r="K109" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="110" spans="2:14">
       <c r="B110" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C110" s="16">
         <f>C97</f>
@@ -3354,11 +3354,11 @@
         <v>0.28090000000000004</v>
       </c>
       <c r="F110" s="19">
-        <f t="shared" ref="F110:G110" si="13">D97</f>
+        <f t="shared" ref="F110:G110" si="14">D97</f>
         <v>1.2372496970106077</v>
       </c>
       <c r="G110" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.12643923360321621</v>
       </c>
       <c r="H110" s="19">
@@ -3366,7 +3366,7 @@
         <v>1.3741577546598134</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" ref="J110:J111" si="14">(E110*G110)/(E110-G110)</f>
+        <f t="shared" ref="J110:J111" si="15">(E110*G110)/(E110-G110)</f>
         <v>0.22994046674549562</v>
       </c>
       <c r="K110" s="20">
@@ -3388,32 +3388,32 @@
         <f>C98</f>
         <v>0.99</v>
       </c>
-      <c r="D111" s="82">
+      <c r="D111" s="76">
         <f>D110</f>
         <v>1.07</v>
       </c>
-      <c r="E111" s="83">
+      <c r="E111" s="77">
         <f>E110</f>
         <v>0.28090000000000004</v>
       </c>
-      <c r="F111" s="82">
-        <f t="shared" ref="F111:G111" si="15">D98</f>
+      <c r="F111" s="76">
+        <f t="shared" ref="F111:G111" si="16">D98</f>
         <v>1.1644431585961768</v>
       </c>
-      <c r="G111" s="83">
-        <f t="shared" si="15"/>
+      <c r="G111" s="77">
+        <f t="shared" si="16"/>
         <v>8.032576409106261E-2</v>
       </c>
-      <c r="H111" s="82">
+      <c r="H111" s="76">
         <f>(E111*F111-G111*D111)/(E111-G111)</f>
         <v>1.2022656577971984</v>
       </c>
-      <c r="I111" s="84"/>
-      <c r="J111" s="84">
-        <f t="shared" si="14"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78">
+        <f t="shared" si="15"/>
         <v>0.11249454363332854</v>
       </c>
-      <c r="K111" s="83">
+      <c r="K111" s="77">
         <f>SQRT(J111)</f>
         <v>0.33540206265514905</v>
       </c>
@@ -3423,14 +3423,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="O72:Q72"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="F107:G107"/>
     <mergeCell ref="H107:J107"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F56:H56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
